--- a/src/main/data/credit-card/信用卡评分建模.xlsx
+++ b/src/main/data/credit-card/信用卡评分建模.xlsx
@@ -1,26 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="信用卡评分建模" sheetId="1" r:id="rId1"/>
+    <sheet name="sex" sheetId="4" r:id="rId2"/>
+    <sheet name="education" sheetId="2" r:id="rId3"/>
+    <sheet name="marriage" sheetId="3" r:id="rId4"/>
+    <sheet name="age" sheetId="5" r:id="rId5"/>
+    <sheet name="频率分数表" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>1、数据勘探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = graduate school; 2 = university; 3 =
+high school; 4 = others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = married; 2 = single; 3 = others</t>
+  </si>
+  <si>
+    <t>1 = male; 2 = female</t>
+  </si>
+  <si>
+    <t>age分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分位分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age20</t>
+  </si>
+  <si>
+    <t>age25</t>
+  </si>
+  <si>
+    <t>age30</t>
+  </si>
+  <si>
+    <t>age35</t>
+  </si>
+  <si>
+    <t>age40</t>
+  </si>
+  <si>
+    <t>age45</t>
+  </si>
+  <si>
+    <t>age50</t>
+  </si>
+  <si>
+    <t>age60</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>2、数据预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1）、education、marriage离散变量异常值处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等距分布 (频数直方图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优分箱处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2）、age最优分箱处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3）、计算IV和WOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频数分布表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4）、logistic回归参数估计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -32,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +175,512 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>education!$A$1:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>education!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>marriage!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>marriage!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>age!$F$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>age20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>age25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>age30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>age35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>age40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>age45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>age50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>age60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>age!$F$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="136262016"/>
+        <c:axId val="136263552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="136262016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136263552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136263552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="136262016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="3022600"/>
+          <a:ext cx="8509000" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -130,7 +754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +788,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,12 +964,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="48.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11888</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>18112</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9015</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2873</v>
+      </c>
+      <c r="H3" s="3">
+        <f>F3/23364</f>
+        <v>0.38585002568053417</v>
+      </c>
+      <c r="I3" s="3">
+        <f>G3/6636</f>
+        <v>0.43294153104279687</v>
+      </c>
+      <c r="J3" s="3">
+        <f>LN(I3/H3)</f>
+        <v>0.11515392719173669</v>
+      </c>
+      <c r="K3" s="3">
+        <f>(I3-H3)*J3</f>
+        <v>5.4227717798352761E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>14349</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3763</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H5" si="0">F4/23364</f>
+        <v>0.61414997431946583</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I5" si="1">G4/6636</f>
+        <v>0.56705846895720313</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J5" si="2">LN(I4/H4)</f>
+        <v>-7.9776737905104408E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4" si="3">(I4-H4)*J4</f>
+        <v>3.75680668084205E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23364</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6636</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.1800000000000007E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>14030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8549</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2036</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21/23364</f>
+        <v>0.36590481082006504</v>
+      </c>
+      <c r="G21" s="3">
+        <f>E21/6636</f>
+        <v>0.30681133212778783</v>
+      </c>
+      <c r="H21" s="3">
+        <f>LN(G21/F21)</f>
+        <v>-0.17614021450595541</v>
+      </c>
+      <c r="I21" s="3">
+        <f>(G21-F21)*H21</f>
+        <v>1.0408738012760814E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3330</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22:F25" si="0">D22/23364</f>
+        <v>0.45796952576613592</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22:G25" si="1">E22/6636</f>
+        <v>0.50180831826401451</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" ref="H22:H25" si="2">LN(G22/F22)</f>
+        <v>9.1415566374356882E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" ref="I22:I24" si="3">(G22-F22)*H22</f>
+        <v>4.0075480453614781E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3680</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1237</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15750727615134394</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18640747438215793</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16846334507937633</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8686240674199995E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>435</v>
+      </c>
+      <c r="E24" s="3">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8618387262455058E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9728752260397831E-3</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.320151465772339</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8014142716087721E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>23364</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6636</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>560</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>39</v>
+      </c>
+      <c r="M3">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1256</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2685</v>
+      </c>
+      <c r="H7">
+        <v>6933</v>
+      </c>
+      <c r="I7">
+        <v>6078</v>
+      </c>
+      <c r="J7">
+        <v>5160</v>
+      </c>
+      <c r="K7">
+        <v>3858</v>
+      </c>
+      <c r="L7">
+        <v>2606</v>
+      </c>
+      <c r="M7">
+        <v>1627</v>
+      </c>
+      <c r="N7">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>617</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>66</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>69</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>74</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>79</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/data/credit-card/信用卡评分建模.xlsx
+++ b/src/main/data/credit-card/信用卡评分建模.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡评分建模" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="education" sheetId="2" r:id="rId3"/>
     <sheet name="marriage" sheetId="3" r:id="rId4"/>
     <sheet name="age" sheetId="5" r:id="rId5"/>
-    <sheet name="频率分数表" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="离散变量处理" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>1、数据勘探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +138,73 @@
   <si>
     <t xml:space="preserve">  4）、logistic回归参数估计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_0index</t>
+  </si>
+  <si>
+    <t>还款状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7，8,9，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0,6.0</t>
+  </si>
+  <si>
+    <t>pay_2index</t>
+  </si>
+  <si>
+    <t>9.0,8.0,7.0,5.0,4.0</t>
+  </si>
+  <si>
+    <t>pay_3index</t>
+  </si>
+  <si>
+    <t>10.0,8.0,7.0,6.0,5.0,4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0,10.0,8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_4index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_5index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0,8.0,7.0</t>
+  </si>
+  <si>
+    <t>2.0,1.0</t>
+  </si>
+  <si>
+    <t>pay_6index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0,8.0,7.0,5.0</t>
+  </si>
+  <si>
+    <t>1.0,2.0</t>
   </si>
 </sst>
 </file>
@@ -194,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -202,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -308,7 +379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -393,7 +464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -483,24 +554,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136262016"/>
-        <c:axId val="136263552"/>
+        <c:axId val="156443008"/>
+        <c:axId val="156444544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136262016"/>
+        <c:axId val="156443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136263552"/>
+        <c:crossAx val="156444544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136263552"/>
+        <c:axId val="156444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +579,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136262016"/>
+        <c:crossAx val="156443008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,7 +592,109 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="61757312"/>
+        <c:axId val="61758848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="61757312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61758848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61758848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61757312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -662,6 +835,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -966,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1017,7 +1225,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1144,7 +1352,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>9.1800000000000007E-3</v>
       </c>
     </row>
@@ -1158,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1458,7 +1666,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2042,14 +2250,224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D2:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:15">
+      <c r="D2">
+        <v>2471</v>
+      </c>
+      <c r="E2">
+        <v>5205</v>
+      </c>
+      <c r="F2">
+        <v>3123</v>
+      </c>
+      <c r="G2">
+        <v>2287</v>
+      </c>
+      <c r="H2">
+        <v>2204</v>
+      </c>
+      <c r="I2">
+        <v>2336</v>
+      </c>
+      <c r="J2">
+        <v>2752</v>
+      </c>
+      <c r="K2">
+        <v>1936</v>
+      </c>
+      <c r="L2">
+        <v>1490</v>
+      </c>
+      <c r="M2">
+        <v>1079</v>
+      </c>
+      <c r="N2">
+        <v>1139</v>
+      </c>
+      <c r="O2">
+        <v>3978</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/data/credit-card/信用卡评分建模.xlsx
+++ b/src/main/data/credit-card/信用卡评分建模.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="信用卡评分建模" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="age" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
     <sheet name="离散变量处理" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>1、数据勘探</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +206,22 @@
   </si>
   <si>
     <t>1.0,2.0</t>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marriage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,7 +396,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -464,7 +481,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -554,24 +571,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156443008"/>
-        <c:axId val="156444544"/>
+        <c:axId val="143672064"/>
+        <c:axId val="143673600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156443008"/>
+        <c:axId val="143672064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156444544"/>
+        <c:crossAx val="143673600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156444544"/>
+        <c:axId val="143673600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +596,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156443008"/>
+        <c:crossAx val="143672064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,7 +609,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -656,24 +673,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="61757312"/>
-        <c:axId val="61758848"/>
+        <c:axId val="147928960"/>
+        <c:axId val="147930496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61757312"/>
+        <c:axId val="147928960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61758848"/>
+        <c:crossAx val="147930496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61758848"/>
+        <c:axId val="147930496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +698,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61757312"/>
+        <c:crossAx val="147928960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -694,7 +711,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -769,16 +786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,7 +813,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="3022600"/>
+          <a:off x="419100" y="2940050"/>
           <a:ext cx="8509000" cy="1174750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1225,7 +1242,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1366,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1609,7 +1626,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1665,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2252,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2308,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2471,4 +2488,56 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="5:6">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6">
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>